--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.8818994855017</v>
+        <v>206.2981091259435</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.4399095364168</v>
+        <v>282.2661741362276</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.2561708017902</v>
+        <v>255.3270866398125</v>
       </c>
       <c r="AD2" t="n">
-        <v>169881.8994855017</v>
+        <v>206298.1091259435</v>
       </c>
       <c r="AE2" t="n">
-        <v>232439.9095364168</v>
+        <v>282266.1741362276</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.794661294704026e-06</v>
+        <v>5.170855077854383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.436921296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>210256.1708017902</v>
+        <v>255327.0866398125</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.4974098932825</v>
+        <v>136.803359774618</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.9239192513742</v>
+        <v>187.1803921818301</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.2336364316426</v>
+        <v>169.3161582613793</v>
       </c>
       <c r="AD3" t="n">
-        <v>112497.4098932825</v>
+        <v>136803.359774618</v>
       </c>
       <c r="AE3" t="n">
-        <v>153923.9192513742</v>
+        <v>187180.3921818301</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.784633019755628e-06</v>
+        <v>7.002561958082055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.016203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>139233.6364316426</v>
+        <v>169316.1582613793</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.91829860617753</v>
+        <v>136.3344187380683</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.7126242371423</v>
+        <v>186.5387663674047</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.6649632573592</v>
+        <v>168.735768314155</v>
       </c>
       <c r="AD4" t="n">
-        <v>99918.29860617753</v>
+        <v>136334.4187380683</v>
       </c>
       <c r="AE4" t="n">
-        <v>136712.6242371423</v>
+        <v>186538.7663674047</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.803854751923739e-06</v>
+        <v>7.038127195119897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.995949074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>123664.9632573593</v>
+        <v>168735.768314155</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9775221506069</v>
+        <v>161.1833176941865</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.368003542417</v>
+        <v>220.5381261752006</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9174432043891</v>
+        <v>199.4902769403069</v>
       </c>
       <c r="AD2" t="n">
-        <v>125977.5221506069</v>
+        <v>161183.3176941865</v>
       </c>
       <c r="AE2" t="n">
-        <v>172368.003542417</v>
+        <v>220538.1261752006</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.338061495447587e-06</v>
+        <v>6.362860381360456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.710648148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>155917.4432043891</v>
+        <v>199490.2769403069</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.3693626436707</v>
+        <v>129.8115355630843</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.5392546540952</v>
+        <v>177.6138698381001</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.6491924555746</v>
+        <v>160.6626513834335</v>
       </c>
       <c r="AD3" t="n">
-        <v>106369.3626436707</v>
+        <v>129811.5355630843</v>
       </c>
       <c r="AE3" t="n">
-        <v>145539.2546540952</v>
+        <v>177613.8698381001</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.90129587515015e-06</v>
+        <v>7.436472034386349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>131649.1924555746</v>
+        <v>160662.6513834335</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.60496450435487</v>
+        <v>116.617190341308</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.8109302281609</v>
+        <v>159.5607846122458</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.3265186415137</v>
+        <v>144.3325272738646</v>
       </c>
       <c r="AD2" t="n">
-        <v>95604.96450435487</v>
+        <v>116617.190341308</v>
       </c>
       <c r="AE2" t="n">
-        <v>130810.9302281609</v>
+        <v>159560.7846122457</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889929732203436e-06</v>
+        <v>8.284532323568301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.508101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>118326.5186415137</v>
+        <v>144332.5272738646</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.60568370255368</v>
+        <v>120.4640244489335</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.9166466175224</v>
+        <v>164.8241927486396</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.040391221085</v>
+        <v>149.0936031249624</v>
       </c>
       <c r="AD2" t="n">
-        <v>98605.68370255368</v>
+        <v>120464.0244489335</v>
       </c>
       <c r="AE2" t="n">
-        <v>134916.6466175224</v>
+        <v>164824.1927486396</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.963567473794926e-06</v>
+        <v>8.047412302574871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.233217592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>122040.391221085</v>
+        <v>149093.6031249625</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.90693380104864</v>
+        <v>124.9610578374571</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.8558538249566</v>
+        <v>170.9772322259255</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.4625933897727</v>
+        <v>154.6594051503833</v>
       </c>
       <c r="AD2" t="n">
-        <v>94906.93380104864</v>
+        <v>124961.0578374571</v>
       </c>
       <c r="AE2" t="n">
-        <v>129855.8538249566</v>
+        <v>170977.2322259255</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.710471120446631e-06</v>
+        <v>8.26249444102101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.910300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>117462.5933897727</v>
+        <v>154659.4051503834</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.0178623069103</v>
+        <v>168.5642124351137</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.0009075421534</v>
+        <v>230.636991981827</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.6309963662593</v>
+        <v>208.6253211681992</v>
       </c>
       <c r="AD2" t="n">
-        <v>133017.8623069103</v>
+        <v>168564.2124351137</v>
       </c>
       <c r="AE2" t="n">
-        <v>182000.9075421534</v>
+        <v>230636.991981827</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.197054744562867e-06</v>
+        <v>6.044874957617704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.872685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>164630.9963662593</v>
+        <v>208625.3211681992</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.985233309793</v>
+        <v>131.6544426189558</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.7501601866652</v>
+        <v>180.1354165752635</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.6490922671423</v>
+        <v>162.9435452390158</v>
       </c>
       <c r="AD3" t="n">
-        <v>107985.233309793</v>
+        <v>131654.4426189558</v>
       </c>
       <c r="AE3" t="n">
-        <v>147750.1601866652</v>
+        <v>180135.4165752635</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.865820082177433e-06</v>
+        <v>7.309352160813607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>133649.0922671423</v>
+        <v>162943.5452390158</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.4720002432481</v>
+        <v>125.0712677213964</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.3114438290026</v>
+        <v>171.1280262512482</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.5385621723851</v>
+        <v>154.79580760557</v>
       </c>
       <c r="AD2" t="n">
-        <v>105472.0002432481</v>
+        <v>125071.2677213964</v>
       </c>
       <c r="AE2" t="n">
-        <v>144311.4438290026</v>
+        <v>171128.0262512482</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.538650328838669e-06</v>
+        <v>8.112592077347062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.269097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>130538.5621723851</v>
+        <v>154795.80760557</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.0143060130946</v>
+        <v>127.7196360003878</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.6852063912626</v>
+        <v>174.7516405683248</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.9720919567731</v>
+        <v>158.0735892580006</v>
       </c>
       <c r="AD2" t="n">
-        <v>105014.3060130946</v>
+        <v>127719.6360003878</v>
       </c>
       <c r="AE2" t="n">
-        <v>143685.2063912626</v>
+        <v>174751.6405683248</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854749529878684e-06</v>
+        <v>7.555255806177433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.201388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>129972.0919567731</v>
+        <v>158073.5892580006</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.6722189173063</v>
+        <v>125.3775489045995</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.4806595012163</v>
+        <v>171.5470936782786</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.0733825243019</v>
+        <v>155.1748798255295</v>
       </c>
       <c r="AD3" t="n">
-        <v>102672.2189173063</v>
+        <v>125377.5489045994</v>
       </c>
       <c r="AE3" t="n">
-        <v>140480.6595012163</v>
+        <v>171547.0936782786</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.946214747290129e-06</v>
+        <v>7.734526368260581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.10300925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>127073.382524302</v>
+        <v>155174.8798255295</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.5396254796506</v>
+        <v>141.9167208662311</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.1911451803774</v>
+        <v>194.176718412942</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.7118499211089</v>
+        <v>175.6447649364017</v>
       </c>
       <c r="AD2" t="n">
-        <v>118539.6254796506</v>
+        <v>141916.7208662311</v>
       </c>
       <c r="AE2" t="n">
-        <v>162191.1451803774</v>
+        <v>194176.718412942</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.504907290271339e-06</v>
+        <v>6.738896046457722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.528356481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>146711.8499211089</v>
+        <v>175644.7649364017</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.01143830201494</v>
+        <v>126.7783883908849</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.8941091429347</v>
+        <v>173.4637840640899</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.8789520598581</v>
+        <v>156.9086439710115</v>
       </c>
       <c r="AD3" t="n">
-        <v>92011.43830201494</v>
+        <v>126778.3883908849</v>
       </c>
       <c r="AE3" t="n">
-        <v>125894.1091429347</v>
+        <v>173463.7840640899</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.97049148535957e-06</v>
+        <v>7.634076212929509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.995949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>113878.9520598581</v>
+        <v>156908.6439710115</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.8193137777336</v>
+        <v>185.0051141650235</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.0400799579907</v>
+        <v>253.1321590500718</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.0397635550551</v>
+        <v>228.9735810636232</v>
       </c>
       <c r="AD2" t="n">
-        <v>160819.3137777337</v>
+        <v>185005.1141650235</v>
       </c>
       <c r="AE2" t="n">
-        <v>220040.0799579907</v>
+        <v>253132.1590500718</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.927801628181853e-06</v>
+        <v>5.454272370018424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.231481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>199039.7635550551</v>
+        <v>228973.5810636232</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.5929698832695</v>
+        <v>134.6934294159876</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.3181804117121</v>
+        <v>184.2934923815956</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.8765856496596</v>
+        <v>166.704780126289</v>
       </c>
       <c r="AD3" t="n">
-        <v>110592.9698832695</v>
+        <v>134693.4294159876</v>
       </c>
       <c r="AE3" t="n">
-        <v>151318.1804117121</v>
+        <v>184293.4923815956</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.827804439463084e-06</v>
+        <v>7.130909345440317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.001736111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>136876.5856496596</v>
+        <v>166704.780126289</v>
       </c>
     </row>
   </sheetData>
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.66386900059165</v>
+        <v>121.8195846327889</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.3645024261378</v>
+        <v>166.6789299952842</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.350065703405</v>
+        <v>150.771326851928</v>
       </c>
       <c r="AD2" t="n">
-        <v>99663.86900059164</v>
+        <v>121819.5846327889</v>
       </c>
       <c r="AE2" t="n">
-        <v>136364.5024261378</v>
+        <v>166678.9299952842</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969629307657251e-06</v>
+        <v>7.957111447387962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.175347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>123350.065703405</v>
+        <v>150771.326851928</v>
       </c>
     </row>
     <row r="3">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.98240037069566</v>
+        <v>122.1381160028929</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.8003310993262</v>
+        <v>167.1147586684725</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.7442994997137</v>
+        <v>151.1655606482367</v>
       </c>
       <c r="AD3" t="n">
-        <v>99982.40037069566</v>
+        <v>122138.1160028929</v>
       </c>
       <c r="AE3" t="n">
-        <v>136800.3310993262</v>
+        <v>167114.7586684726</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.96888478381613e-06</v>
+        <v>7.955619051317727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.175347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>123744.2994997137</v>
+        <v>151165.5606482367</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.61897821599773</v>
+        <v>117.824224883721</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.1983485235577</v>
+        <v>161.2123025237802</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.581523682052</v>
+        <v>145.8264266338426</v>
       </c>
       <c r="AD2" t="n">
-        <v>96618.97821599773</v>
+        <v>117824.224883721</v>
       </c>
       <c r="AE2" t="n">
-        <v>132198.3485235577</v>
+        <v>161212.3025237801</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925938442782339e-06</v>
+        <v>8.213308742312887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.398148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>119581.523682052</v>
+        <v>145826.4266338426</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.36879926297735</v>
+        <v>126.0796140170873</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.4877985260333</v>
+        <v>172.5076901381107</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.0342261755188</v>
+        <v>156.0437983074412</v>
       </c>
       <c r="AD2" t="n">
-        <v>95368.79926297735</v>
+        <v>126079.6140170873</v>
       </c>
       <c r="AE2" t="n">
-        <v>130487.7985260332</v>
+        <v>172507.6901381107</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.809352217681172e-06</v>
+        <v>8.280982297823103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>118034.2261755188</v>
+        <v>156043.7983074412</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.8010007778486</v>
+        <v>136.3381328009699</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4980851086934</v>
+        <v>186.5438481121197</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.4210748808224</v>
+        <v>168.7403650642866</v>
       </c>
       <c r="AD2" t="n">
-        <v>107801.0007778486</v>
+        <v>136338.1328009699</v>
       </c>
       <c r="AE2" t="n">
-        <v>147498.0851086934</v>
+        <v>186543.8481121197</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.237653220327637e-06</v>
+        <v>7.700845483086572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.920138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>133421.0748808224</v>
+        <v>168740.3650642866</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.2165153146794</v>
+        <v>134.1777765709657</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.1713427798497</v>
+        <v>183.5879534100389</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.6483233988034</v>
+        <v>166.0665768039473</v>
       </c>
       <c r="AD2" t="n">
-        <v>111216.5153146794</v>
+        <v>134177.7765709657</v>
       </c>
       <c r="AE2" t="n">
-        <v>152171.3427798497</v>
+        <v>183587.953410039</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.687574363456794e-06</v>
+        <v>7.156026402122371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.346064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>137648.3233988034</v>
+        <v>166066.5768039473</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.2960648943738</v>
+        <v>127.2573261506601</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.7024772060674</v>
+        <v>174.1190878362567</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.0831530657435</v>
+        <v>157.5014064708875</v>
       </c>
       <c r="AD3" t="n">
-        <v>104296.0648943738</v>
+        <v>127257.3261506601</v>
       </c>
       <c r="AE3" t="n">
-        <v>142702.4772060674</v>
+        <v>174119.0878362567</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.91607091975397e-06</v>
+        <v>7.599441836902604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.091435185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>129083.1530657435</v>
+        <v>157501.4064708875</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.9108782902776</v>
+        <v>176.8846292070773</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.2194096285089</v>
+        <v>242.0213532801031</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.2518028149093</v>
+        <v>218.9231750022229</v>
       </c>
       <c r="AD2" t="n">
-        <v>152910.8782902776</v>
+        <v>176884.6292070773</v>
       </c>
       <c r="AE2" t="n">
-        <v>209219.4096285088</v>
+        <v>242021.3532801032</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.055388674384641e-06</v>
+        <v>5.733107565936347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.054976851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>189251.8028149093</v>
+        <v>218923.1750022229</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.1381728756438</v>
+        <v>133.0265829378719</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.3276629647654</v>
+        <v>182.0128394941621</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.0760403941401</v>
+        <v>164.641789549515</v>
       </c>
       <c r="AD3" t="n">
-        <v>109138.1728756439</v>
+        <v>133026.5829378719</v>
       </c>
       <c r="AE3" t="n">
-        <v>149327.6629647654</v>
+        <v>182012.8394941621</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.853718391612048e-06</v>
+        <v>7.231087243716641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.007523148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>135076.0403941401</v>
+        <v>164641.7895495149</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.3800648270611</v>
+        <v>169.850244479402</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.4964890094709</v>
+        <v>232.3965977605509</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.0792802338892</v>
+        <v>210.2169926410245</v>
       </c>
       <c r="AD2" t="n">
-        <v>133380.0648270611</v>
+        <v>169850.244479402</v>
       </c>
       <c r="AE2" t="n">
-        <v>182496.4890094709</v>
+        <v>232396.5977605509</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.695109459733649e-06</v>
+        <v>6.740264228199168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.36400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>165079.2802338892</v>
+        <v>210216.9926410245</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.54400859596356</v>
+        <v>119.0866511986285</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.4640158988865</v>
+        <v>162.9396099021541</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.7263975394551</v>
+        <v>147.3888822203163</v>
       </c>
       <c r="AD2" t="n">
-        <v>97544.00859596356</v>
+        <v>119086.6511986285</v>
       </c>
       <c r="AE2" t="n">
-        <v>133464.0158988865</v>
+        <v>162939.6099021541</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.951017726097572e-06</v>
+        <v>8.136265446088333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.305555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>120726.3975394552</v>
+        <v>147388.8822203163</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.2408356431315</v>
+        <v>123.6781989546578</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.522177757318</v>
+        <v>169.2219681067409</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.3018155292943</v>
+        <v>153.0716609752044</v>
       </c>
       <c r="AD2" t="n">
-        <v>101240.8356431315</v>
+        <v>123678.1989546578</v>
       </c>
       <c r="AE2" t="n">
-        <v>138522.177757318</v>
+        <v>169221.9681067409</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.949162588417449e-06</v>
+        <v>7.824018175019795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.146412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>125301.8155292943</v>
+        <v>153071.6609752044</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.6510130691186</v>
+        <v>124.0883763806448</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.0834006073041</v>
+        <v>169.7831909567269</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.8094760581591</v>
+        <v>153.5793215040692</v>
       </c>
       <c r="AD3" t="n">
-        <v>101651.0130691186</v>
+        <v>124088.3763806448</v>
       </c>
       <c r="AE3" t="n">
-        <v>139083.4006073041</v>
+        <v>169783.1909567269</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.944747776356959e-06</v>
+        <v>7.815271619509046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.152199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>125809.4760581591</v>
+        <v>153579.3215040692</v>
       </c>
     </row>
   </sheetData>
